--- a/ITI/PIXm/3.0.2/StructureDefinition-IHE.PIXm.Patient.xlsx
+++ b/ITI/PIXm/3.0.2/StructureDefinition-IHE.PIXm.Patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T14:18:06-06:00</t>
+    <t>2022-02-28T19:13:58-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
